--- a/level-3/hackerearth-phase-3-advanced-data-structures/hackerearth-phase-3-advanced-data-structures.xlsx
+++ b/level-3/hackerearth-phase-3-advanced-data-structures/hackerearth-phase-3-advanced-data-structures.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0AD4E7-8B95-4011-953C-DAD4B8ACCF8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EEAD60-44F2-45CD-8A2D-00578DBDD13E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="251">
   <si>
     <t>Problem Link</t>
   </si>
@@ -507,6 +507,267 @@
   </si>
   <si>
     <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/energy-bars-2daea794/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/joseph-and-stringaugclash/</t>
+  </si>
+  <si>
+    <t>suffix array</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/9/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/sonya-and-string-shifts-code-monk-triesuffix-structures/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/unique-gems/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/little-bear-and-strings/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/one-mismatch/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/cats-substrings/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/maximum-binary-number-2980dd7b/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/little-shino-and-substring-query-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/guddu-and-his-father/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/the-suffix-matches-4/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/and-it-boils-down-to-this/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-arrays/practice-problems/algorithm/difdif/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-trees/practice-problems/algorithm/p1-9-a0103fa2/</t>
+  </si>
+  <si>
+    <t>suffix tree</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-trees/practice-problems/algorithm/power-of-string-3/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-trees/practice-problems/algorithm/computer-virus/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/suffix-trees/practice-problems/algorithm/employee-performance-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/cluster-features-b6d64df9/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/assembly-5e181b92/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/mr-sinister-and-his-world-4cc82c88/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/frames-4/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/shil-and-wave-seqeuncemonk/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/gifts/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/beautiful-pair-of-nodes-d5dea13c/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/girls-and-cups-f113fa57/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/test-132-77fbf74d/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/sherlock-and-tree-i-3e6855ed/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/two-trees-march-hourstorm-064ee1c9/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/tree-party-score-ba8a07b7/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/distinct-digits-i-6/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/ambiguous-tree/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/h-valentina-and-the-gift-tree/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/k-th-mean-path/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/gaming-triples/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/rotations-and-inversions/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/inversions-revisited/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/mancunian-and-twin-permutations-d988930c/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/sherlock-and-inversions/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/shil-and-special-pairs/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/fenwick-binary-indexed-trees/practice-problems/algorithm/dilku-and-love-triangle/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/repair-tree-339749d4/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/update-and-query/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/yet-another-sub-tree-problem/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/clothes-arrangement-2ef4d85b/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/hard-job/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/this-is-code-apocalypse-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/do-you-order-queries-27a70fdd/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/simple-sum-3-f1585a25/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/comrades-iii/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/a-b-ranked-mission/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/retroactive-integers/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/research-on-numbers-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/flipping-brackets-8ee887fb/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/segment-tree-8/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/shooting-range/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/benny-and-string/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/reversing-segments-3cd67101/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/pikachu-vs-team-rocket-56b518ee/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/array-and-good-pairs-7f649027/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/circuit-breaks-long-into-segments-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/many-bit-operation-9ff4912a/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/xor-queries-1/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/xsquare-and-maximum-sum-subarray/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/common-goods-d6bafb1e/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/something-genuine/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/min-difference-queries-f5b9c199/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/potential-baac3b0b/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/replace-27c5286c/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/mathison-and-the-pokemon-fights-fd8b7c53/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/adadnahsioo-2804289e/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/weird-graph-query-b810c8d2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/rhezo-and-his-array/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/yet-another-gcd-sum-problem-88b3e34a/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/super-power-of-2s-2/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/mathison-and-the-distinct-elements-e95121a5/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/mathison-and-the-furthest-point-a502ddf6/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/mathisons-sums-f9f8160c/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/minimum-flip-df9815a3/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/sherlock-and-subarrays/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/xsquare-and-array-operations/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/utkarsh-and-special-function-5a877e7c/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/transaction-f9f70f83/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/treat-in-restaurent-52becbc9/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/dynamic-dp-5a0c6d5f/</t>
+  </si>
+  <si>
+    <t>https://www.hackerearth.com/practice/data-structures/advanced-data-structures/segment-trees/practice-problems/algorithm/zeus-and-his-wrath-for-fibonacci/</t>
   </si>
 </sst>
 </file>
@@ -579,14 +840,14 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -672,7 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,14 +963,8 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,12 +993,147 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1211,7 +1601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J196"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1227,58 +1617,58 @@
     <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C195)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
@@ -1307,7 +1697,7 @@
       </c>
       <c r="J3" s="5">
         <f>COUNTA(J4:J880)</f>
-        <v>147</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1327,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1347,7 +1737,7 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1368,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1389,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1410,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1431,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1452,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1473,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="21" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1494,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1515,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1536,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1557,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="21" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1578,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1599,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1620,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1641,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1662,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1683,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1704,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1725,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1746,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1767,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1788,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1809,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1830,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1851,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="21" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1872,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1893,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1914,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1935,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="21" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1956,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="21" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1977,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="21" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1998,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="21" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2019,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="21" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2040,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2061,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="21" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2082,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2103,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2124,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="21" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2145,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2166,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2187,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="21" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2208,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2229,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2250,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="21" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2271,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2292,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="21" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2313,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2334,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="21" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2355,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2376,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="21" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2397,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2418,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2439,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2460,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2481,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="21" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2502,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="21" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2523,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="21" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2544,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2565,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2586,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2607,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="21" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2628,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="21" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2649,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="21" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2670,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2691,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="21" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2712,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2733,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="21" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2750,11 +3140,11 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="7">
-        <f t="shared" ref="H72:H135" si="2">SUM(C72:G72)</f>
+        <f t="shared" ref="H72:H180" si="2">SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2775,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2795,7 +3185,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="22" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2815,7 +3205,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J75" s="22" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2835,7 +3225,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="22" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2855,7 +3245,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J77" s="12" t="s">
+      <c r="J77" s="22" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2875,7 +3265,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J78" s="22" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2895,7 +3285,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J79" s="12" t="s">
+      <c r="J79" s="22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2915,7 +3305,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J80" s="12" t="s">
+      <c r="J80" s="22" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2935,7 +3325,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J81" s="12" t="s">
+      <c r="J81" s="22" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2955,7 +3345,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2975,7 +3365,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J83" s="12" t="s">
+      <c r="J83" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2995,7 +3385,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J84" s="12" t="s">
+      <c r="J84" s="22" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3015,7 +3405,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J85" s="12" t="s">
+      <c r="J85" s="22" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3035,7 +3425,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="22" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3055,7 +3445,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="22" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3075,7 +3465,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J88" s="12" t="s">
+      <c r="J88" s="22" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3095,7 +3485,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J89" s="12" t="s">
+      <c r="J89" s="22" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3115,7 +3505,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J90" s="12" t="s">
+      <c r="J90" s="22" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3135,7 +3525,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="J91" s="22" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3155,7 +3545,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J92" s="12" t="s">
+      <c r="J92" s="22" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3175,7 +3565,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J93" s="12" t="s">
+      <c r="J93" s="22" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3195,7 +3585,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J94" s="12" t="s">
+      <c r="J94" s="22" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3215,7 +3605,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="J95" s="22" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3235,7 +3625,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="22" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3255,7 +3645,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J97" s="12" t="s">
+      <c r="J97" s="22" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3275,7 +3665,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J98" s="12" t="s">
+      <c r="J98" s="22" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3295,7 +3685,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="J99" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3315,7 +3705,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J100" s="12" t="s">
+      <c r="J100" s="22" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3335,7 +3725,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J101" s="12" t="s">
+      <c r="J101" s="22" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3355,7 +3745,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J102" s="12" t="s">
+      <c r="J102" s="22" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3375,7 +3765,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J103" s="12" t="s">
+      <c r="J103" s="22" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3395,7 +3785,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J104" s="12" t="s">
+      <c r="J104" s="22" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3415,7 +3805,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J105" s="12" t="s">
+      <c r="J105" s="22" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3435,7 +3825,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J106" s="12" t="s">
+      <c r="J106" s="22" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3455,7 +3845,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J107" s="12" t="s">
+      <c r="J107" s="22" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3475,7 +3865,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="J108" s="22" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3495,7 +3885,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J109" s="12" t="s">
+      <c r="J109" s="22" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3515,7 +3905,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J110" s="12" t="s">
+      <c r="J110" s="22" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3535,7 +3925,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J111" s="12" t="s">
+      <c r="J111" s="22" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3555,7 +3945,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J112" s="12" t="s">
+      <c r="J112" s="22" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3575,917 +3965,2154 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J113" s="12" t="s">
+      <c r="J113" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
-      <c r="H114" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="12" t="s">
-        <v>127</v>
+      <c r="H114" s="11">
+        <f t="shared" ref="H114:H158" si="3">SUM(C114:G114)</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="22" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
-      <c r="H115" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>128</v>
+      <c r="H115" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="22" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
-      <c r="H116" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J116" s="12" t="s">
-        <v>129</v>
+      <c r="H116" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="22" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
-      <c r="H117" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="12" t="s">
-        <v>130</v>
+      <c r="H117" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="22" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
-      <c r="H118" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="12" t="s">
-        <v>131</v>
+      <c r="H118" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="22" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
-      <c r="H119" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="12" t="s">
-        <v>132</v>
+      <c r="H119" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="22" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
-      <c r="H120" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="12" t="s">
-        <v>133</v>
+      <c r="H120" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="22" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
-      <c r="H121" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="12" t="s">
-        <v>134</v>
+      <c r="H121" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="22" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
-      <c r="H122" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="12" t="s">
-        <v>135</v>
+      <c r="H122" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="22" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
-      <c r="H123" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="12" t="s">
-        <v>136</v>
+      <c r="H123" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="22" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
-      <c r="H124" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="12" t="s">
-        <v>137</v>
+      <c r="H124" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="22" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
-      <c r="H125" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="12" t="s">
-        <v>138</v>
+      <c r="H125" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="22" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
-      <c r="H126" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="12" t="s">
-        <v>139</v>
+      <c r="H126" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="22" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
-      <c r="H127" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="12" t="s">
-        <v>140</v>
+      <c r="H127" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="22" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
-      <c r="H128" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="12" t="s">
-        <v>141</v>
+      <c r="H128" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="22" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
-      <c r="H129" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="12" t="s">
-        <v>142</v>
+      <c r="H129" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="22" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
-      <c r="H130" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="12" t="s">
-        <v>143</v>
+      <c r="H130" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
-      <c r="H131" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="12" t="s">
-        <v>144</v>
+      <c r="H131" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H132" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="12" t="s">
-        <v>145</v>
+        <v>44</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="22" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H133" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="12" t="s">
-        <v>146</v>
+        <v>44</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="22" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="12" t="s">
-        <v>147</v>
+        <v>44</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="22" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H135" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="12" t="s">
-        <v>148</v>
+        <v>44</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="7">
-        <f t="shared" ref="H136:H199" si="3">SUM(C136:G136)</f>
-        <v>0</v>
-      </c>
-      <c r="J136" s="12" t="s">
-        <v>149</v>
+        <v>44</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="22" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H137" s="7">
+        <v>44</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>150</v>
+      <c r="J137" s="22" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H138" s="7">
+        <v>44</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J138" s="12" t="s">
-        <v>151</v>
+      <c r="J138" s="22" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H139" s="7">
+        <v>44</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J139" s="12" t="s">
-        <v>152</v>
+      <c r="J139" s="22" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H140" s="7">
+        <v>44</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J140" s="12" t="s">
-        <v>153</v>
+      <c r="J140" s="22" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="7">
+        <v>44</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J141" s="12" t="s">
-        <v>154</v>
+      <c r="J141" s="22" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H142" s="7">
+        <v>44</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J142" s="12" t="s">
-        <v>155</v>
+      <c r="J142" s="22" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H143" s="7">
+        <v>44</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J143" s="12" t="s">
-        <v>156</v>
+      <c r="J143" s="22" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H144" s="7">
+        <v>44</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>157</v>
+      <c r="J144" s="22" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H145" s="7">
+        <v>44</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J145" s="12" t="s">
-        <v>158</v>
+      <c r="J145" s="22" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H146" s="7">
+        <v>44</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J146" s="12" t="s">
-        <v>159</v>
+      <c r="J146" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H147" s="7">
+        <v>44</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J147" s="12" t="s">
-        <v>160</v>
+      <c r="J147" s="22" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H148" s="7">
+        <v>44</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J148" s="12" t="s">
-        <v>161</v>
+      <c r="J148" s="22" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H149" s="7">
+        <v>44</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J149" s="12" t="s">
-        <v>162</v>
+      <c r="J149" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H150" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="12" t="s">
+      <c r="B159" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J167" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J169" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="9"/>
+      <c r="H173" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H177" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H178" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H179" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H180" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J180" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H181" s="7">
+        <f t="shared" ref="H181:H195" si="4">SUM(C181:G181)</f>
+        <v>0</v>
+      </c>
+      <c r="J181" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H182" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J182" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H183" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J183" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H184" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J184" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H185" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J185" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H186" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J186" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H187" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J187" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H188" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J188" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H189" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J189" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H190" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J190" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H191" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J191" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H192" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J192" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H193" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J193" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H194" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J194" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H195" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J195" s="22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="H151" s="7"/>
-      <c r="J151" s="12"/>
-    </row>
-    <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="H152" s="7"/>
-      <c r="J152" s="12"/>
-    </row>
-    <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="H153" s="7"/>
-      <c r="J153" s="12"/>
-    </row>
-    <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="H154" s="7"/>
-      <c r="J154" s="12"/>
-    </row>
-    <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="H155" s="7"/>
-      <c r="J155" s="12"/>
-    </row>
-    <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="H156" s="7"/>
-      <c r="J156" s="12"/>
-    </row>
-    <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="H157" s="7"/>
-      <c r="J157" s="12"/>
-    </row>
-    <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="H158" s="7"/>
-      <c r="J158" s="12"/>
-    </row>
-    <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="H159" s="7"/>
-      <c r="J159" s="12"/>
-    </row>
-    <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="H160" s="7"/>
-      <c r="J160" s="12"/>
-    </row>
-    <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="H161" s="7"/>
-      <c r="J161" s="12"/>
-    </row>
-    <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="H162" s="7"/>
-      <c r="J162" s="12"/>
-    </row>
-    <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="H163" s="7"/>
-      <c r="J163" s="12"/>
-    </row>
-    <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="H164" s="7"/>
-      <c r="J164" s="12"/>
-    </row>
-    <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="H165" s="7"/>
-      <c r="J165" s="12"/>
-    </row>
-    <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="H166" s="7"/>
-      <c r="J166" s="12"/>
-    </row>
-    <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="H167" s="7"/>
-      <c r="J167" s="12"/>
-    </row>
-    <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="H168" s="7"/>
-      <c r="J168" s="12"/>
-    </row>
-    <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
-      <c r="H169" s="7"/>
-      <c r="J169" s="12"/>
-    </row>
-    <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
-      <c r="H170" s="7"/>
-      <c r="J170" s="12"/>
-    </row>
-    <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="H171" s="7"/>
-      <c r="J171" s="12"/>
-    </row>
-    <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="H172" s="7"/>
-      <c r="J172" s="12"/>
-    </row>
-    <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="H173" s="7"/>
-      <c r="J173" s="12"/>
-    </row>
-    <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="H174" s="7"/>
-      <c r="J174" s="12"/>
-    </row>
-    <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
-      <c r="H175" s="7"/>
-      <c r="J175" s="12"/>
-    </row>
-    <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
-      <c r="H176" s="7"/>
-      <c r="J176" s="12"/>
-    </row>
-    <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
-      <c r="H177" s="7"/>
-      <c r="J177" s="12"/>
-    </row>
-    <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="4"/>
-      <c r="B178" s="4"/>
-      <c r="H178" s="7"/>
-      <c r="J178" s="12"/>
-    </row>
-    <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
-      <c r="H179" s="7"/>
-      <c r="J179" s="12"/>
-    </row>
-    <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="4"/>
-      <c r="B180" s="4"/>
-      <c r="H180" s="7"/>
-      <c r="J180" s="12"/>
-    </row>
-    <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
-      <c r="H181" s="7"/>
-      <c r="J181" s="12"/>
-    </row>
-    <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="H182" s="7"/>
-      <c r="J182" s="12"/>
-    </row>
-    <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="H183" s="7"/>
-      <c r="J183" s="12"/>
-    </row>
-    <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="H184" s="7"/>
-      <c r="J184" s="12"/>
-    </row>
-    <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="H185" s="7"/>
-      <c r="J185" s="12"/>
-    </row>
-    <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="H186" s="7"/>
-      <c r="J186" s="12"/>
-    </row>
-    <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="H187" s="7"/>
-      <c r="J187" s="12"/>
-    </row>
-    <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="H188" s="7"/>
-      <c r="J188" s="12"/>
-    </row>
-    <row r="189" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="H189" s="7"/>
-      <c r="J189" s="12"/>
-    </row>
-    <row r="190" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="H190" s="7"/>
-      <c r="J190" s="12"/>
-    </row>
-    <row r="191" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="4"/>
-      <c r="H191" s="7"/>
-    </row>
-    <row r="192" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="4"/>
-      <c r="H192" s="7"/>
-    </row>
-    <row r="193" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="4"/>
-      <c r="H193" s="7"/>
-    </row>
-    <row r="194" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="4"/>
-      <c r="H194" s="7"/>
-    </row>
-    <row r="195" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="4"/>
-      <c r="H195" s="7"/>
-    </row>
-    <row r="196" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="4"/>
+    <row r="196" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H196" s="11">
+        <f t="shared" ref="H196:H235" si="5">SUM(C196:G196)</f>
+        <v>0</v>
+      </c>
+      <c r="J196" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H197" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J197" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H198" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J198" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H199" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J199" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H200" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J200" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H201" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J201" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H202" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J202" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H203" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J203" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H204" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J204" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H205" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J205" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H206" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J206" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H207" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J207" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H208" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J208" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H209" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J209" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H210" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J210" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H211" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J211" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H212" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J212" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H213" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J213" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H214" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J214" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H215" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J215" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H216" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J216" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H217" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J217" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H218" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J218" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H219" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J219" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H220" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J220" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H221" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J221" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H222" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J222" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H223" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J223" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H224" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J224" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H225" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J225" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H226" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J226" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H227" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J227" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H228" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J228" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H229" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J229" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H230" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J230" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H231" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J231" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H232" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J232" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H233" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J233" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H234" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J234" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H235" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J235" s="22" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4501,96 +6128,186 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I65 I67:I70">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:I71">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J130:J133 I134:J136">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J117">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J121">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J210:J212 J214:J217">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J213">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J218">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J210:J218">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J219">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J219">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J220">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J220">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I130:I133">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I117">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I121">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I210:I212 I214:I217">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
+  <conditionalFormatting sqref="I213">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
+  <conditionalFormatting sqref="I218">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
+  <conditionalFormatting sqref="I210:I218">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
